--- a/FAIRe_checklist_v1.0.3_FULLtemplate.xlsx
+++ b/FAIRe_checklist_v1.0.3_FULLtemplate.xlsx
@@ -2955,7 +2955,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-07-31T19:35:08.738464</t>
+          <t>2025-07-31T19:40:06.927695</t>
         </is>
       </c>
     </row>

--- a/FAIRe_checklist_v1.0.3_FULLtemplate.xlsx
+++ b/FAIRe_checklist_v1.0.3_FULLtemplate.xlsx
@@ -2955,7 +2955,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-07-31T19:40:06.927695</t>
+          <t>2025-07-31T19:40:44.808984</t>
         </is>
       </c>
     </row>

--- a/FAIRe_checklist_v1.0.3_FULLtemplate.xlsx
+++ b/FAIRe_checklist_v1.0.3_FULLtemplate.xlsx
@@ -2955,7 +2955,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-07-31T19:40:44.808984</t>
+          <t>2025-07-31T19:41:43.709868</t>
         </is>
       </c>
     </row>

--- a/FAIRe_checklist_v1.0.3_FULLtemplate.xlsx
+++ b/FAIRe_checklist_v1.0.3_FULLtemplate.xlsx
@@ -2955,7 +2955,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-07-31T19:41:43.709868</t>
+          <t>2025-07-31T19:47:10.677251</t>
         </is>
       </c>
     </row>

--- a/FAIRe_checklist_v1.0.3_FULLtemplate.xlsx
+++ b/FAIRe_checklist_v1.0.3_FULLtemplate.xlsx
@@ -2955,7 +2955,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-07-31T19:47:10.677251</t>
+          <t>2025-07-31T19:49:51.421108</t>
         </is>
       </c>
     </row>

--- a/FAIRe_checklist_v1.0.3_FULLtemplate.xlsx
+++ b/FAIRe_checklist_v1.0.3_FULLtemplate.xlsx
@@ -2955,7 +2955,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-07-31T19:49:51.421108</t>
+          <t>2025-07-31T20:04:02.734644</t>
         </is>
       </c>
     </row>

--- a/FAIRe_checklist_v1.0.3_FULLtemplate.xlsx
+++ b/FAIRe_checklist_v1.0.3_FULLtemplate.xlsx
@@ -2955,7 +2955,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-07-31T20:04:02.734644</t>
+          <t>2025-07-31T20:16:17.840248</t>
         </is>
       </c>
     </row>

--- a/FAIRe_checklist_v1.0.3_FULLtemplate.xlsx
+++ b/FAIRe_checklist_v1.0.3_FULLtemplate.xlsx
@@ -2955,7 +2955,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-07-31T20:16:17.840248</t>
+          <t>2025-08-05T18:23:18.443611</t>
         </is>
       </c>
     </row>

--- a/FAIRe_checklist_v1.0.3_FULLtemplate.xlsx
+++ b/FAIRe_checklist_v1.0.3_FULLtemplate.xlsx
@@ -2955,7 +2955,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-08-05T18:23:18.443611</t>
+          <t>2025-08-07T10:58:40.923189</t>
         </is>
       </c>
     </row>
